--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
   <si>
     <t>Entity name</t>
   </si>
@@ -704,6 +704,15 @@
   </si>
   <si>
     <t>RETURN LIB_RISK_EW.updateOutputIrisTable();</t>
+  </si>
+  <si>
+    <t>LastUpdateBackTesting</t>
+  </si>
+  <si>
+    <t>UpdateBackTesting</t>
+  </si>
+  <si>
+    <t>RETURN LIB_RISK_NEW.backTesting();</t>
   </si>
 </sst>
 </file>
@@ -2220,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2273,6 +2282,20 @@
       </c>
       <c r="D3" s="67" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2422,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2656,6 +2679,73 @@
       <c r="AC3" s="69"/>
       <c r="AD3" s="69"/>
       <c r="AE3" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="68">
+        <v>6</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="65" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2670,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2709,6 +2799,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="9"/>
+    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
   <si>
     <t>Entity name</t>
   </si>
@@ -712,7 +712,118 @@
     <t>UpdateBackTesting</t>
   </si>
   <si>
-    <t>RETURN LIB_RISK_NEW.backTesting();</t>
+    <t>RETURN LIB_RISK_EW.backTesting();</t>
+  </si>
+  <si>
+    <t>WSMatrix_Color</t>
+  </si>
+  <si>
+    <t>exposureSum</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date</t>
+  </si>
+  <si>
+    <t>Y, N</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date of Main / Aggregate type</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date which is also a formula</t>
+  </si>
+  <si>
+    <t>Only for formula</t>
+  </si>
+  <si>
+    <t>AUTO, MAN</t>
+  </si>
+  <si>
+    <t>No (optional for Real, Integer and TS)</t>
+  </si>
+  <si>
+    <t>No (optional for TS which is a formula)</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>FULL, RANGE</t>
+  </si>
+  <si>
+    <t>Only for TS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>H, D, M, Y</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date or TS and File which is also a formula</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date which is not a formula and has Default = Y</t>
+  </si>
+  <si>
+    <t>Only for formula with Default = Y</t>
+  </si>
+  <si>
+    <t>Only for Date</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Hourly, Daily, Monthly, Quarterly, Half-yearly, Yearly</t>
+  </si>
+  <si>
+    <t>No (optional for Boolean)</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Standard, Inverted</t>
+  </si>
+  <si>
+    <t>No (optional for Real, Integer)</t>
+  </si>
+  <si>
+    <t>No (optional for Real)</t>
+  </si>
+  <si>
+    <t>Approximated</t>
+  </si>
+  <si>
+    <t>Truncated, Approximated</t>
+  </si>
+  <si>
+    <t>No (optional for String, should be a number within interval 1 - 4000)</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>Set, Regex, Range, None</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Set</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Regex</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Range</t>
   </si>
 </sst>
 </file>
@@ -2229,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2298,6 +2409,20 @@
         <v>74</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2307,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2333,6 +2458,386 @@
       </c>
       <c r="D1" s="63" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2746,6 +3251,65 @@
       <c r="AC4" s="69"/>
       <c r="AD4" s="69"/>
       <c r="AE4" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5"/>
+      <c r="L5" s="1"/>
+      <c r="M5"/>
+      <c r="N5" s="1"/>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2763,7 +3327,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="10"/>
+    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -679,9 +679,6 @@
     <t>Hourly</t>
   </si>
   <si>
-    <t>Properties_Predictive</t>
-  </si>
-  <si>
     <t>LastUpdateAnalysisUnit</t>
   </si>
   <si>
@@ -824,6 +821,9 @@
   </si>
   <si>
     <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Range</t>
+  </si>
+  <si>
+    <t>Analysis_Unit</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1289,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,12 +1299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAC2524"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1320,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1493,7 +1487,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2342,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2368,59 +2361,59 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>66</v>
+      <c r="C2" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>71</v>
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>74</v>
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2434,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D32"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2465,7 +2458,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2475,7 +2468,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2485,7 +2478,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2495,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2505,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -2515,13 +2508,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2529,13 +2522,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2543,13 +2536,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2557,13 +2550,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2571,13 +2564,13 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2585,7 +2578,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -2595,13 +2588,13 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2609,13 +2602,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2623,13 +2616,13 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2637,13 +2630,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2651,7 +2644,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -2661,7 +2654,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2671,13 +2664,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2685,13 +2678,13 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2699,13 +2692,13 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2713,13 +2706,13 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2727,7 +2720,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2737,13 +2730,13 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
         <v>105</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2751,10 +2744,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
         <v>108</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
       </c>
       <c r="D25"/>
     </row>
@@ -2763,13 +2756,13 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2777,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -2787,13 +2780,13 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2801,7 +2794,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -2811,7 +2804,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -2821,7 +2814,7 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -2831,13 +2824,13 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2952,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3057,19 +3050,19 @@
       </c>
     </row>
     <row r="2" spans="1:31" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="68">
+      <c r="D2" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="67">
         <v>4</v>
       </c>
       <c r="F2" s="65" t="s">
@@ -3085,16 +3078,16 @@
         <v>58</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="69"/>
-      <c r="N2" s="69"/>
+        <v>69</v>
+      </c>
+      <c r="L2" s="68"/>
+      <c r="N2" s="68"/>
       <c r="O2" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="69"/>
+      <c r="P2" s="68"/>
       <c r="Q2" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" s="65" t="s">
         <v>59</v>
@@ -3105,35 +3098,35 @@
       <c r="T2" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
       <c r="AE2" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="67" t="s">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="68">
+      <c r="D3" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="67">
         <v>5</v>
       </c>
       <c r="F3" s="65" t="s">
@@ -3149,18 +3142,18 @@
         <v>58</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="65"/>
-      <c r="L3" s="69"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="65"/>
-      <c r="N3" s="69"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="69"/>
+      <c r="P3" s="68"/>
       <c r="Q3" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R3" s="65" t="s">
         <v>59</v>
@@ -3171,36 +3164,36 @@
       <c r="T3" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
       <c r="Y3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
       <c r="AB3" s="65"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
       <c r="AE3" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="67" t="s">
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="68">
+      <c r="D4" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="67">
         <v>6</v>
       </c>
       <c r="F4" s="65" t="s">
@@ -3216,18 +3209,18 @@
         <v>58</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="65"/>
-      <c r="L4" s="69"/>
+      <c r="L4" s="68"/>
       <c r="M4" s="65"/>
-      <c r="N4" s="69"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="69"/>
+      <c r="P4" s="68"/>
       <c r="Q4" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" s="65" t="s">
         <v>59</v>
@@ -3238,34 +3231,34 @@
       <c r="T4" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
       <c r="Y4" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
       <c r="AB4" s="65"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
       <c r="AE4" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -3350,27 +3343,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="9"/>
+    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
   <si>
     <t>Entity name</t>
   </si>
@@ -682,9 +682,6 @@
     <t>LastUpdateAnalysisUnit</t>
   </si>
   <si>
-    <t>RETURN LIB_RISK_EW.UpdateAnalysisUnit();</t>
-  </si>
-  <si>
     <t>Early Warning Properties</t>
   </si>
   <si>
@@ -700,16 +697,121 @@
     <t>UpdateOutput</t>
   </si>
   <si>
-    <t>RETURN LIB_RISK_EW.updateOutputIrisTable();</t>
-  </si>
-  <si>
     <t>LastUpdateBackTesting</t>
   </si>
   <si>
     <t>UpdateBackTesting</t>
   </si>
   <si>
-    <t>RETURN LIB_RISK_EW.backTesting();</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date</t>
+  </si>
+  <si>
+    <t>Y, N</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date of Main / Aggregate type</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date which is also a formula</t>
+  </si>
+  <si>
+    <t>Only for formula</t>
+  </si>
+  <si>
+    <t>AUTO, MAN</t>
+  </si>
+  <si>
+    <t>No (optional for Real, Integer and TS)</t>
+  </si>
+  <si>
+    <t>No (optional for TS which is a formula)</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>FULL, RANGE</t>
+  </si>
+  <si>
+    <t>Only for TS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>H, D, M, Y</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date or TS and File which is also a formula</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date which is not a formula and has Default = Y</t>
+  </si>
+  <si>
+    <t>Only for formula with Default = Y</t>
+  </si>
+  <si>
+    <t>Only for Date</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Hourly, Daily, Monthly, Quarterly, Half-yearly, Yearly</t>
+  </si>
+  <si>
+    <t>No (optional for Boolean)</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Standard, Inverted</t>
+  </si>
+  <si>
+    <t>No (optional for Real, Integer)</t>
+  </si>
+  <si>
+    <t>No (optional for Real)</t>
+  </si>
+  <si>
+    <t>Approximated</t>
+  </si>
+  <si>
+    <t>Truncated, Approximated</t>
+  </si>
+  <si>
+    <t>No (optional for String, should be a number within interval 1 - 4000)</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>Set, Regex, Range, None</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Set</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Regex</t>
+  </si>
+  <si>
+    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Range</t>
+  </si>
+  <si>
+    <t>Analysis_Unit</t>
+  </si>
+  <si>
+    <t>RETURN LIB_RISK_EW.updateOutputIrisTable(Analysis_Unit.ID);</t>
+  </si>
+  <si>
+    <t>RETURN LIB_RISK_EW.backTesting(Analysis_Unit.ID);</t>
+  </si>
+  <si>
+    <t>RETURN LIB_RISK_EW.updateAnalysisUnit(Analysis_Unit.ID);</t>
   </si>
   <si>
     <t>WSMatrix_Color</t>
@@ -722,108 +824,6 @@
   </si>
   <si>
     <t>Properties</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Only for String, Boolean, Real, Integer, Date</t>
-  </si>
-  <si>
-    <t>Y, N</t>
-  </si>
-  <si>
-    <t>Only for String, Boolean, Real, Integer, Date of Main / Aggregate type</t>
-  </si>
-  <si>
-    <t>Only for String, Boolean, Real, Integer, Date which is also a formula</t>
-  </si>
-  <si>
-    <t>Only for formula</t>
-  </si>
-  <si>
-    <t>AUTO, MAN</t>
-  </si>
-  <si>
-    <t>No (optional for Real, Integer and TS)</t>
-  </si>
-  <si>
-    <t>No (optional for TS which is a formula)</t>
-  </si>
-  <si>
-    <t>FULL</t>
-  </si>
-  <si>
-    <t>FULL, RANGE</t>
-  </si>
-  <si>
-    <t>Only for TS</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>H, D, M, Y</t>
-  </si>
-  <si>
-    <t>Only for String, Boolean, Real, Integer, Date or TS and File which is also a formula</t>
-  </si>
-  <si>
-    <t>Only for String, Boolean, Real, Integer, Date which is not a formula and has Default = Y</t>
-  </si>
-  <si>
-    <t>Only for formula with Default = Y</t>
-  </si>
-  <si>
-    <t>Only for Date</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Hourly, Daily, Monthly, Quarterly, Half-yearly, Yearly</t>
-  </si>
-  <si>
-    <t>No (optional for Boolean)</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Standard, Inverted</t>
-  </si>
-  <si>
-    <t>No (optional for Real, Integer)</t>
-  </si>
-  <si>
-    <t>No (optional for Real)</t>
-  </si>
-  <si>
-    <t>Approximated</t>
-  </si>
-  <si>
-    <t>Truncated, Approximated</t>
-  </si>
-  <si>
-    <t>No (optional for String, should be a number within interval 1 - 4000)</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>Set, Regex, Range, None</t>
-  </si>
-  <si>
-    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Set</t>
-  </si>
-  <si>
-    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Regex</t>
-  </si>
-  <si>
-    <t>Only for String, Boolean, Real, Integer, Date with Value pattern = Range</t>
-  </si>
-  <si>
-    <t>Analysis_Unit</t>
   </si>
 </sst>
 </file>
@@ -2333,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>65</v>
@@ -2376,44 +2376,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +2444,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2468,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2478,7 +2464,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2488,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2498,7 +2484,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -2508,13 +2494,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2522,13 +2508,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2536,13 +2522,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2550,13 +2536,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2564,13 +2550,13 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2578,7 +2564,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -2588,13 +2574,13 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2602,13 +2588,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2616,13 +2602,13 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2630,13 +2616,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2644,7 +2630,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -2654,7 +2640,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2664,13 +2650,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2678,13 +2664,13 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2692,13 +2678,13 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2706,13 +2692,13 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2720,7 +2706,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2730,13 +2716,13 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2744,10 +2730,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D25"/>
     </row>
@@ -2756,13 +2742,13 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2770,7 +2756,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -2780,13 +2766,13 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2794,7 +2780,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -2804,7 +2790,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -2814,7 +2800,7 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -2824,13 +2810,13 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2945,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3051,7 +3037,7 @@
     </row>
     <row r="2" spans="1:31" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>65</v>
@@ -3060,7 +3046,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="67">
         <v>4</v>
@@ -3078,7 +3064,7 @@
         <v>58</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" s="68"/>
       <c r="N2" s="68"/>
@@ -3087,7 +3073,7 @@
       </c>
       <c r="P2" s="68"/>
       <c r="Q2" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R2" s="65" t="s">
         <v>59</v>
@@ -3115,16 +3101,16 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="67">
         <v>5</v>
@@ -3142,7 +3128,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="65"/>
       <c r="L3" s="68"/>
@@ -3153,7 +3139,7 @@
       </c>
       <c r="P3" s="68"/>
       <c r="Q3" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" s="65" t="s">
         <v>59</v>
@@ -3182,16 +3168,16 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="67">
         <v>6</v>
@@ -3209,7 +3195,7 @@
         <v>58</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="65"/>
       <c r="L4" s="68"/>
@@ -3220,7 +3206,7 @@
       </c>
       <c r="P4" s="68"/>
       <c r="Q4" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R4" s="65" t="s">
         <v>59</v>
@@ -3249,16 +3235,16 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -3320,13 +3306,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.42578125" style="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="56" style="39" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="30" style="39" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -3343,27 +3329,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="4"/>
+    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -805,15 +805,6 @@
     <t>Analysis_Unit</t>
   </si>
   <si>
-    <t>RETURN LIB_RISK_EW.updateOutputIrisTable(Analysis_Unit.ID);</t>
-  </si>
-  <si>
-    <t>RETURN LIB_RISK_EW.backTesting(Analysis_Unit.ID);</t>
-  </si>
-  <si>
-    <t>RETURN LIB_RISK_EW.updateAnalysisUnit(Analysis_Unit.ID);</t>
-  </si>
-  <si>
     <t>WSMatrix_Color</t>
   </si>
   <si>
@@ -824,6 +815,15 @@
   </si>
   <si>
     <t>Properties</t>
+  </si>
+  <si>
+    <t>RETURN LIB_EWS.updateAnalysisUnit(Analysis_Unit.ID);</t>
+  </si>
+  <si>
+    <t>RETURN LIB_EWS.updateOutputTable(Analysis_Unit.ID);</t>
+  </si>
+  <si>
+    <t>RETURN LIB_EWS.backTesting(Analysis_Unit.ID);</t>
   </si>
 </sst>
 </file>
@@ -2931,7 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3235,16 +3235,16 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -3305,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3332,7 +3332,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -3341,7 +3341,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3349,7 +3349,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="5"/>
+    <workbookView xWindow="97245" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="949" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
   <si>
     <t>Entity name</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>RETURN LIB_EWS.backTesting(Analysis_Unit.ID);</t>
+  </si>
+  <si>
+    <t>TeradataSchema</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -2333,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2400,6 +2406,20 @@
       </c>
       <c r="D4" s="66" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2929,15 +2949,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="31" width="30" style="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="30" style="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="31" width="30" style="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -3289,6 +3311,42 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="17">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3305,7 +3363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="119">
   <si>
     <t>Entity name</t>
   </si>
@@ -830,6 +830,15 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>sourceTable</t>
+  </si>
+  <si>
+    <t>Tabella Sorgente</t>
+  </si>
+  <si>
+    <t>Source table</t>
   </si>
 </sst>
 </file>
@@ -2339,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2420,6 +2429,20 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2949,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3347,6 +3370,42 @@
         <v>60</v>
       </c>
       <c r="AE6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="17">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/11_EntityType.xlsx
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="127">
   <si>
     <t>Entity name</t>
   </si>
@@ -832,13 +832,37 @@
     <t>String</t>
   </si>
   <si>
-    <t>sourceTable</t>
-  </si>
-  <si>
-    <t>Tabella Sorgente</t>
-  </si>
-  <si>
-    <t>Source table</t>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>UpdateSourceTable_Formula</t>
+  </si>
+  <si>
+    <t>UpdateOutTable_Formula</t>
+  </si>
+  <si>
+    <t>CustomerUnit_AnalysisUnit</t>
+  </si>
+  <si>
+    <t>Customer_Unit</t>
+  </si>
+  <si>
+    <t>Output_tableName</t>
+  </si>
+  <si>
+    <t>Source_tableName</t>
+  </si>
+  <si>
+    <t>Tabella sorgente</t>
+  </si>
+  <si>
+    <t>Tabella di output</t>
+  </si>
+  <si>
+    <t>Output table name</t>
+  </si>
+  <si>
+    <t>Source table name</t>
   </si>
 </sst>
 </file>
@@ -2313,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2338,6 +2362,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2348,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2419,30 +2454,86 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>118</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2893,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2925,6 +3016,29 @@
       </c>
       <c r="G1" s="64" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2972,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3339,10 +3453,10 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>115</v>
@@ -3351,7 +3465,7 @@
         <v>66</v>
       </c>
       <c r="E6" s="17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
@@ -3375,10 +3489,10 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>115</v>
@@ -3387,7 +3501,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>59</v>
@@ -3406,6 +3520,150 @@
         <v>60</v>
       </c>
       <c r="AE7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="17">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="17">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="17">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3422,9 +3680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3544,10 +3800,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3567,6 +3823,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
